--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-418075.5004077797</v>
+        <v>-419963.0819241821</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13746788.93856738</v>
+        <v>13746788.93856739</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>267.285755793977</v>
+        <v>60.94067095028591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.4736908254684</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>28.89264992377338</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>322.9839323604965</v>
+        <v>194.8931050932405</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>38.06452392610819</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>42.00944731476196</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>64.34226368086765</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>139.6016168191414</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>139.8939792152983</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>101.625715293184</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417082</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>43.03801681746473</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>169.8277167599788</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.272891771004</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>42.31474834504473</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1938,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.34501372154307</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.4898845065135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.2973384150638</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>59.18919775056382</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750029</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>212.1979728757948</v>
       </c>
       <c r="U28" t="n">
-        <v>155.8385935972311</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533807</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700712</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965577</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801258</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>42.20569823124612</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752362</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550467</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298327</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700208</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952714</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080344</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604806</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235382</v>
+        <v>57.41378701534956</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.8324622741517</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224539</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1117.800419524901</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C2" t="n">
-        <v>748.8379025844893</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1894.539591564834</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1504.400259589023</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2255.552480504987</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C4" t="n">
-        <v>2255.552480504987</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D4" t="n">
-        <v>2255.552480504987</v>
+        <v>106.9467099268982</v>
       </c>
       <c r="E4" t="n">
-        <v>2255.552480504987</v>
+        <v>106.9467099268982</v>
       </c>
       <c r="F4" t="n">
-        <v>2255.552480504987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2255.552480504987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2097.804107937517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2255.552480504987</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>2255.552480504987</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>2255.552480504987</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1271.835978902613</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C5" t="n">
-        <v>1271.835978902613</v>
+        <v>1001.804156090967</v>
       </c>
       <c r="D5" t="n">
-        <v>1271.835978902613</v>
+        <v>643.5384574842167</v>
       </c>
       <c r="E5" t="n">
-        <v>1271.835978902613</v>
+        <v>257.7502048859724</v>
       </c>
       <c r="F5" t="n">
-        <v>860.8500741130058</v>
+        <v>250.804704136769</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.575150942547</v>
+        <v>2147.505845071312</v>
       </c>
       <c r="Y5" t="n">
-        <v>1658.435818966735</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.391796148808</v>
+        <v>656.2782798936299</v>
       </c>
       <c r="C7" t="n">
-        <v>261.391796148808</v>
+        <v>656.2782798936299</v>
       </c>
       <c r="D7" t="n">
-        <v>261.391796148808</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="E7" t="n">
-        <v>261.391796148808</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F7" t="n">
-        <v>261.391796148808</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>92.39199588714041</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>92.39199588714041</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>261.391796148808</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>261.391796148808</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>261.391796148808</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>261.391796148808</v>
+        <v>656.2782798936299</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.391796148808</v>
+        <v>656.2782798936299</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1452.061221751177</v>
+        <v>1718.957088916127</v>
       </c>
       <c r="C8" t="n">
-        <v>1083.098704810766</v>
+        <v>1349.994571975716</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>991.7288733689652</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>605.9406207707209</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>194.9547159811133</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
         <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2092.422847177207</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2092.422847177207</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1718.957088916127</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.661061815299</v>
+        <v>1718.957088916127</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,13 +4878,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4893,31 +4893,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>195.250031532787</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>195.250031532787</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550599</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610187</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003437</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643321</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899124</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207827</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.85457301429</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.56127523126</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141864</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465297</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121727</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851612</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614721</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>229.033392311836</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>378.1030765138956</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>624.8682044203595</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M12" t="n">
-        <v>932.1883377003207</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>437.696422630597</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>437.696422630597</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>287.5797832182614</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>287.5797832182614</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>140.6898357203512</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,46 +5203,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771462</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655748</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286142</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X13" t="n">
-        <v>437.696422630597</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y13" t="n">
-        <v>437.696422630597</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550599</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5267,61 +5267,61 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823821</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514111</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899124</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207826</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.85457301429</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.56127523126</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141864</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465297</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121727</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851612</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614721</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126479</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571601</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636234</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643584</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307616</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526312</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963125</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278839</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>738.7219969042596</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>569.7858139763528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>419.6691745640172</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557901</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557901</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771459</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344993</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344993</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.3704617344993</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5492,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822465</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795213</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256432</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277025</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341659</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653861</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.87805691801</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136707</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5628,7 +5628,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861029</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.497233179936</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471183</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1405.638478919978</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1405.638478919978</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1116.509840133537</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>861.8253519276501</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>861.8253519276501</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>633.8358010296329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.0432218861029</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1283.500421245926</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771462</v>
+        <v>1283.500421245926</v>
       </c>
       <c r="V22" t="n">
-        <v>955.103143565575</v>
+        <v>1283.500421245926</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286145</v>
+        <v>994.083251208965</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305972</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.9038434870672</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>622.9469297333515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>454.0107468054447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>303.894107393109</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.894107393109</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>157.0041598951988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119729</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119729</v>
+        <v>869.3083006011509</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913842</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>843.7395088768815</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>843.7395088768815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>622.9469297333515</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>413.3055067228586</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>413.3055067228586</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>413.3055067228586</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404655</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404655</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6382,10 +6382,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1173.499780376501</v>
       </c>
       <c r="U28" t="n">
-        <v>1341.503549752619</v>
+        <v>884.3711415900589</v>
       </c>
       <c r="V28" t="n">
-        <v>1341.503549752619</v>
+        <v>884.3711415900589</v>
       </c>
       <c r="W28" t="n">
-        <v>1341.503549752619</v>
+        <v>594.9539715530983</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854602</v>
+        <v>594.9539715530983</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>594.9539715530983</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,22 +6464,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542103</v>
+        <v>546.5704195584493</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076737</v>
+        <v>546.5704195584493</v>
       </c>
       <c r="D31" t="n">
-        <v>232.0013381767083</v>
+        <v>452.2146454274844</v>
       </c>
       <c r="E31" t="n">
-        <v>139.849109875686</v>
+        <v>360.062417126462</v>
       </c>
       <c r="F31" t="n">
-        <v>139.849109875686</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864667</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933492</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667495</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962032</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286022</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.39040735369</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021644</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056071</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899266</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096189</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167065</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661993</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737477</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818866</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652395</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030797</v>
+        <v>672.4580191073183</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6838,7 +6838,7 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083207</v>
@@ -6847,7 +6847,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,22 +6883,22 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010319</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7020,22 +7020,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,46 +7394,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,10 +7801,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>91.23759968302292</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>158.8724419039331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208121</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504591</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229635</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4555516459127</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583891</v>
+        <v>51.71984429841046</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>104.1192143015243</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583891</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>105.5757962620601</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583891</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.34209567542362</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583891</v>
+        <v>118.2502226433255</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>107.3043707128137</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583891</v>
+        <v>82.39383318338638</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>9.349588182594445</v>
       </c>
       <c r="U28" t="n">
-        <v>130.3987588013463</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437466</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>69.08461360357487</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897954</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571539</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>105.9676097081881</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.334310688136611e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1201171.012197578</v>
+        <v>1201171.012197579</v>
       </c>
     </row>
     <row r="12">
@@ -26314,22 +26314,22 @@
         <v>246312.5309592849</v>
       </c>
       <c r="C2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="D2" t="n">
         <v>246312.530959285</v>
       </c>
-      <c r="D2" t="n">
-        <v>246312.5309592849</v>
-      </c>
       <c r="E2" t="n">
-        <v>234617.4358426253</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="F2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="H2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="I2" t="n">
         <v>234617.4358426252</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768956</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.131660496866971e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284527</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086724</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338369</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284526</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687092</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687093</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687082</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106709</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819126</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871658</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871656</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022275</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-592147.2941051936</v>
+        <v>-592147.2941051935</v>
       </c>
       <c r="C6" t="n">
+        <v>-2179.414890648972</v>
+      </c>
+      <c r="D6" t="n">
         <v>-2179.414890648914</v>
       </c>
-      <c r="D6" t="n">
-        <v>-2179.414890648972</v>
-      </c>
       <c r="E6" t="n">
-        <v>-404704.5341698577</v>
+        <v>-404801.9932958305</v>
       </c>
       <c r="F6" t="n">
-        <v>120455.5023070386</v>
+        <v>120358.0431810658</v>
       </c>
       <c r="G6" t="n">
-        <v>120455.5023070378</v>
+        <v>120358.0431810656</v>
       </c>
       <c r="H6" t="n">
-        <v>120455.5023070367</v>
+        <v>120358.0431810656</v>
       </c>
       <c r="I6" t="n">
-        <v>120455.5023070379</v>
+        <v>120358.0431810658</v>
       </c>
       <c r="J6" t="n">
-        <v>-55967.71688555513</v>
+        <v>-56065.1760115273</v>
       </c>
       <c r="K6" t="n">
-        <v>62963.23847302665</v>
+        <v>62944.74473509166</v>
       </c>
       <c r="L6" t="n">
-        <v>93661.12351020126</v>
+        <v>93661.12351020162</v>
       </c>
       <c r="M6" t="n">
-        <v>-30796.98492276837</v>
+        <v>-30796.98492276871</v>
       </c>
       <c r="N6" t="n">
         <v>104004.0303110684</v>
       </c>
       <c r="O6" t="n">
-        <v>104004.0303110685</v>
+        <v>104004.0303110686</v>
       </c>
       <c r="P6" t="n">
-        <v>59841.42500822326</v>
+        <v>59841.42500822284</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964069</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,31 +26735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26771,7 +26771,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253572</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253572</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108405</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855657</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370131</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990166</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>87.39728582670591</v>
+        <v>293.7423706703971</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>92.94735719746285</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>106.0729718685648</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>90.80023766029848</v>
+        <v>218.8910649275545</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>96.90109786623003</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>183.7002080742752</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>290.3407779398153</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>274.1825532016536</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>146.6290191212927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>116.9589380589107</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.263949110987596e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>5.612131142948628e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.601599019020796e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.145100872361519e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29323,13 +29323,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855659</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303327</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>133.1477786379295</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.257704956024</v>
+        <v>408.1301468599573</v>
       </c>
       <c r="M12" t="n">
-        <v>310.424377050466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415661</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714616</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507396</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.214186879929</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953152</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523362</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799283</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789722</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056034</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206026</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109148</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734289</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415655</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.093414931524</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507368</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799283</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789722</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056034</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206026</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187486</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412212</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584672</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084851</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075291</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341602</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491595</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403573</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043135</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,16 +37710,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
